--- a/src/main/resources/template/excel/export/StockReimburse.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburse.xlsx
@@ -63,9 +63,6 @@
     <t>商品名称</t>
   </si>
   <si>
-    <t>条码</t>
-  </si>
-  <si>
     <t>单位</t>
   </si>
   <si>
@@ -127,6 +124,10 @@
   </si>
   <si>
     <t>报损单</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际条码</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +559,7 @@
   <dimension ref="A1:EF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:136" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -720,31 +721,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
@@ -874,37 +875,37 @@
     </row>
     <row r="3" spans="1:136" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/StockReimburse.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="K3")</t>
+          <t>jx:area(lastCell="K4")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>货号</t>
   </si>
@@ -128,6 +128,25 @@
   </si>
   <si>
     <t>国际条码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUM(G3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(H3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(I3)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUM(J3)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -135,6 +154,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -252,12 +274,83 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -277,7 +370,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -559,7 +652,7 @@
   <dimension ref="A1:EF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,7 +1001,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="7"/>
+    </row>
     <row r="5" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/StockReimburse.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburse.xlsx
@@ -33,7 +33,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="K3")</t>
+          <t>jx:area(lastCell="K4")</t>
         </r>
       </text>
     </comment>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>货号</t>
   </si>
@@ -128,6 +128,25 @@
   </si>
   <si>
     <t>国际条码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>总计：</t>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(G3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(H3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(I3+0)]</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>$[SUMPRODUCT(J3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -135,6 +154,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -234,7 +256,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -248,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -559,7 +584,7 @@
   <dimension ref="A1:EF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -574,19 +599,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:136" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -908,7 +933,29 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="6"/>
+    </row>
     <row r="5" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/StockReimburse.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburse.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\okdeer\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,19 +134,19 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>$[SUM(G3)]</t>
+    <t>$[SUMPRODUCT(G3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUM(H3)]</t>
+    <t>$[SUMPRODUCT(H3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUM(I3)]</t>
+    <t>$[SUMPRODUCT(I3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUM(J3)]</t>
+    <t>$[SUMPRODUCT(J3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -271,10 +271,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -283,74 +283,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -370,7 +302,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -652,7 +584,7 @@
   <dimension ref="A1:EF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -667,19 +599,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:136" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1002,27 +934,27 @@
       </c>
     </row>
     <row r="4" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/StockReimburse.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburse.xlsx
@@ -31,6 +31,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:area(lastCell="K4")</t>
@@ -44,6 +45,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>jx:each(items="reportList" var="obj" lastCell="K3")</t>
@@ -134,19 +136,19 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(H3+0)]</t>
+    <t>$[SUMPRODUCT(H3:H3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(I3+0)]</t>
+    <t>$[SUMPRODUCT(I3:I3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(J3+0)]</t>
+    <t>$[SUMPRODUCT(J3:J3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -169,12 +171,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -182,6 +186,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -189,22 +194,26 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -584,7 +593,7 @@
   <dimension ref="A1:EF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/StockReimburse.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburse.xlsx
@@ -136,19 +136,19 @@
     <t>总计：</t>
   </si>
   <si>
-    <t>$[SUMPRODUCT(G3:G3+0)]</t>
+    <t>$[SUMPRODUCT(G3:G3:G3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(H3:H3+0)]</t>
+    <t>$[SUMPRODUCT(H3:H3:H3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(I3:I3+0)]</t>
+    <t>$[SUMPRODUCT(I3:I3:I3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>$[SUMPRODUCT(J3:J3+0)]</t>
+    <t>$[SUMPRODUCT(J3:J3:J3+0)]</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +593,7 @@
   <dimension ref="A1:EF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/src/main/resources/template/excel/export/StockReimburse.xlsx
+++ b/src/main/resources/template/excel/export/StockReimburse.xlsx
@@ -156,8 +156,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ ;[Red]\-0.0000\ "/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -265,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -284,6 +285,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -593,7 +600,7 @@
   <dimension ref="A1:EF101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -923,19 +930,19 @@
       <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -951,16 +958,16 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="9" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="6"/>
@@ -1068,7 +1075,7 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>